--- a/Code/Results/Cases/Case_6_17/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_6_17/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.012535247839021</v>
+        <v>1.012535247839022</v>
       </c>
       <c r="D2">
-        <v>1.033932524154694</v>
+        <v>1.033932524154696</v>
       </c>
       <c r="E2">
-        <v>1.014811210516082</v>
+        <v>1.014811210516083</v>
       </c>
       <c r="F2">
-        <v>1.038140898841031</v>
+        <v>1.038140898841033</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.055141289436248</v>
+        <v>1.05514128943625</v>
       </c>
       <c r="J2">
-        <v>1.034347388560453</v>
+        <v>1.034347388560455</v>
       </c>
       <c r="K2">
-        <v>1.044938530808099</v>
+        <v>1.0449385308081</v>
       </c>
       <c r="L2">
-        <v>1.026067987148536</v>
+        <v>1.026067987148537</v>
       </c>
       <c r="M2">
-        <v>1.04909326296102</v>
+        <v>1.049093262961021</v>
       </c>
       <c r="N2">
-        <v>1.035816280493513</v>
+        <v>1.035816280493514</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,16 +462,16 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.02175722610631</v>
+        <v>1.021757226106311</v>
       </c>
       <c r="D3">
         <v>1.041282683810308</v>
       </c>
       <c r="E3">
-        <v>1.022821940938248</v>
+        <v>1.022821940938249</v>
       </c>
       <c r="F3">
-        <v>1.046062629883509</v>
+        <v>1.04606262988351</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -480,19 +480,19 @@
         <v>1.058581494019106</v>
       </c>
       <c r="J3">
-        <v>1.041671841709686</v>
+        <v>1.041671841709688</v>
       </c>
       <c r="K3">
         <v>1.05141324835455</v>
       </c>
       <c r="L3">
-        <v>1.033170906382284</v>
+        <v>1.033170906382285</v>
       </c>
       <c r="M3">
-        <v>1.056138196012938</v>
+        <v>1.056138196012939</v>
       </c>
       <c r="N3">
-        <v>1.043151135206345</v>
+        <v>1.043151135206346</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.027508475955994</v>
+        <v>1.027508475955997</v>
       </c>
       <c r="D4">
-        <v>1.045869634043711</v>
+        <v>1.045869634043714</v>
       </c>
       <c r="E4">
-        <v>1.027818132883747</v>
+        <v>1.027818132883749</v>
       </c>
       <c r="F4">
-        <v>1.051009947770861</v>
+        <v>1.051009947770864</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.060711722548454</v>
+        <v>1.060711722548456</v>
       </c>
       <c r="J4">
-        <v>1.046233759940402</v>
+        <v>1.046233759940405</v>
       </c>
       <c r="K4">
-        <v>1.055444263373197</v>
+        <v>1.055444263373199</v>
       </c>
       <c r="L4">
-        <v>1.037592021681275</v>
+        <v>1.037592021681277</v>
       </c>
       <c r="M4">
-        <v>1.060529370158284</v>
+        <v>1.060529370158286</v>
       </c>
       <c r="N4">
-        <v>1.047719531884208</v>
+        <v>1.04771953188421</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.029878120539369</v>
+        <v>1.029878120539368</v>
       </c>
       <c r="D5">
-        <v>1.047760145579088</v>
+        <v>1.047760145579087</v>
       </c>
       <c r="E5">
-        <v>1.029876662491182</v>
+        <v>1.029876662491181</v>
       </c>
       <c r="F5">
-        <v>1.053049868431096</v>
+        <v>1.053049868431095</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.061585688788862</v>
+        <v>1.061585688788861</v>
       </c>
       <c r="J5">
-        <v>1.048111869848513</v>
+        <v>1.048111869848512</v>
       </c>
       <c r="K5">
-        <v>1.057103369057126</v>
+        <v>1.057103369057125</v>
       </c>
       <c r="L5">
         <v>1.039411487687369</v>
       </c>
       <c r="M5">
-        <v>1.062337941190687</v>
+        <v>1.062337941190686</v>
       </c>
       <c r="N5">
-        <v>1.04960030892381</v>
+        <v>1.049600308923809</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -588,7 +588,7 @@
         <v>1.030273264581439</v>
       </c>
       <c r="D6">
-        <v>1.04807542334811</v>
+        <v>1.048075423348111</v>
       </c>
       <c r="E6">
         <v>1.03021992396364</v>
@@ -603,7 +603,7 @@
         <v>1.061731202808998</v>
       </c>
       <c r="J6">
-        <v>1.048424958746777</v>
+        <v>1.048424958746776</v>
       </c>
       <c r="K6">
         <v>1.057379922391228</v>
@@ -612,10 +612,10 @@
         <v>1.039714760645937</v>
       </c>
       <c r="M6">
-        <v>1.062639480766655</v>
+        <v>1.062639480766656</v>
       </c>
       <c r="N6">
-        <v>1.049913842444221</v>
+        <v>1.04991384244422</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.027540324196069</v>
+        <v>1.02754032419607</v>
       </c>
       <c r="D7">
-        <v>1.04589504056079</v>
+        <v>1.045895040560791</v>
       </c>
       <c r="E7">
-        <v>1.027845799883272</v>
+        <v>1.027845799883273</v>
       </c>
       <c r="F7">
-        <v>1.051037358686589</v>
+        <v>1.05103735868659</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.060723483641973</v>
+        <v>1.060723483641974</v>
       </c>
       <c r="J7">
-        <v>1.046259007963217</v>
+        <v>1.046259007963218</v>
       </c>
       <c r="K7">
-        <v>1.055466569025365</v>
+        <v>1.055466569025367</v>
       </c>
       <c r="L7">
-        <v>1.037616484015155</v>
+        <v>1.037616484015156</v>
       </c>
       <c r="M7">
-        <v>1.060553680414968</v>
+        <v>1.06055368041497</v>
       </c>
       <c r="N7">
-        <v>1.04774481576211</v>
+        <v>1.047744815762111</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -708,13 +708,13 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9929966966518845</v>
+        <v>0.9929966966518846</v>
       </c>
       <c r="D9">
         <v>1.018384889155732</v>
       </c>
       <c r="E9">
-        <v>0.997845783629052</v>
+        <v>0.9978457836290521</v>
       </c>
       <c r="F9">
         <v>1.021405027625877</v>
@@ -749,16 +749,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9763282467452019</v>
+        <v>0.9763282467452004</v>
       </c>
       <c r="D10">
-        <v>1.005154700896301</v>
+        <v>1.005154700896299</v>
       </c>
       <c r="E10">
-        <v>0.9833858492523417</v>
+        <v>0.9833858492523402</v>
       </c>
       <c r="F10">
-        <v>1.007182432242529</v>
+        <v>1.007182432242528</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -767,19 +767,19 @@
         <v>1.041411713312699</v>
       </c>
       <c r="J10">
-        <v>1.005513585226202</v>
+        <v>1.0055135852262</v>
       </c>
       <c r="K10">
-        <v>1.019431505182823</v>
+        <v>1.019431505182822</v>
       </c>
       <c r="L10">
-        <v>0.9980616995617201</v>
+        <v>0.9980616995617185</v>
       </c>
       <c r="M10">
-        <v>1.021423205381181</v>
+        <v>1.02142320538118</v>
       </c>
       <c r="N10">
-        <v>1.006941529851243</v>
+        <v>1.006941529851242</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9686629802317194</v>
+        <v>0.9686629802317168</v>
       </c>
       <c r="D11">
-        <v>0.9990827781360569</v>
+        <v>0.9990827781360549</v>
       </c>
       <c r="E11">
-        <v>0.9767419883538995</v>
+        <v>0.9767419883538973</v>
       </c>
       <c r="F11">
-        <v>1.000659957333327</v>
+        <v>1.000659957333325</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.038471370951543</v>
+        <v>1.038471370951541</v>
       </c>
       <c r="J11">
-        <v>0.9994001311209886</v>
+        <v>0.9994001311209861</v>
       </c>
       <c r="K11">
-        <v>1.014022012672152</v>
+        <v>1.01402201267215</v>
       </c>
       <c r="L11">
-        <v>0.9921162620405928</v>
+        <v>0.9921162620405908</v>
       </c>
       <c r="M11">
-        <v>1.015569438548391</v>
+        <v>1.015569438548389</v>
       </c>
       <c r="N11">
-        <v>1.000819393939977</v>
+        <v>1.000819393939975</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,16 +831,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9657396943356946</v>
+        <v>0.9657396943356951</v>
       </c>
       <c r="D12">
-        <v>0.9967693445618806</v>
+        <v>0.9967693445618808</v>
       </c>
       <c r="E12">
-        <v>0.9742093546359759</v>
+        <v>0.9742093546359764</v>
       </c>
       <c r="F12">
-        <v>0.9981755996168762</v>
+        <v>0.9981755996168766</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -849,19 +849,19 @@
         <v>1.037347721515741</v>
       </c>
       <c r="J12">
-        <v>0.9970682744779243</v>
+        <v>0.9970682744779249</v>
       </c>
       <c r="K12">
-        <v>1.011958701672029</v>
+        <v>1.01195870167203</v>
       </c>
       <c r="L12">
-        <v>0.9898479238168838</v>
+        <v>0.9898479238168839</v>
       </c>
       <c r="M12">
-        <v>1.013337835925048</v>
+        <v>1.013337835925049</v>
       </c>
       <c r="N12">
-        <v>0.9984842257930127</v>
+        <v>0.9984842257930129</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9663703508515996</v>
+        <v>0.9663703508516018</v>
       </c>
       <c r="D13">
-        <v>0.9972683284598162</v>
+        <v>0.9972683284598179</v>
       </c>
       <c r="E13">
-        <v>0.9747556785598304</v>
+        <v>0.9747556785598325</v>
       </c>
       <c r="F13">
-        <v>0.9987114167751794</v>
+        <v>0.9987114167751807</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.037590232921453</v>
+        <v>1.037590232921454</v>
       </c>
       <c r="J13">
-        <v>0.9975713524513395</v>
+        <v>0.9975713524513417</v>
       </c>
       <c r="K13">
-        <v>1.012403840257483</v>
+        <v>1.012403840257484</v>
       </c>
       <c r="L13">
-        <v>0.9903373237468491</v>
+        <v>0.9903373237468512</v>
       </c>
       <c r="M13">
-        <v>1.013819228667826</v>
+        <v>1.013819228667827</v>
       </c>
       <c r="N13">
-        <v>0.9989880181948539</v>
+        <v>0.9989880181948561</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9684229490813014</v>
+        <v>0.9684229490812989</v>
       </c>
       <c r="D14">
-        <v>0.9988927751183748</v>
+        <v>0.9988927751183727</v>
       </c>
       <c r="E14">
-        <v>0.9765340093956119</v>
+        <v>0.9765340093956095</v>
       </c>
       <c r="F14">
-        <v>1.000455901310519</v>
+        <v>1.000455901310517</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.038379153366098</v>
+        <v>1.038379153366097</v>
       </c>
       <c r="J14">
-        <v>0.9992086687467006</v>
+        <v>0.9992086687466983</v>
       </c>
       <c r="K14">
-        <v>1.01385259864721</v>
+        <v>1.013852598647208</v>
       </c>
       <c r="L14">
-        <v>0.9919300264457235</v>
+        <v>0.991930026445721</v>
       </c>
       <c r="M14">
-        <v>1.015386182700389</v>
+        <v>1.015386182700387</v>
       </c>
       <c r="N14">
-        <v>1.000627659667157</v>
+        <v>1.000627659667155</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,16 +954,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9696772516808269</v>
+        <v>0.9696772516808276</v>
       </c>
       <c r="D15">
-        <v>0.9998857431384464</v>
+        <v>0.999885743138447</v>
       </c>
       <c r="E15">
-        <v>0.97762086763972</v>
+        <v>0.9776208676397202</v>
       </c>
       <c r="F15">
-        <v>1.001522341182003</v>
+        <v>1.001522341182004</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -975,16 +975,16 @@
         <v>1.000209156958396</v>
       </c>
       <c r="K15">
-        <v>1.014737874907661</v>
+        <v>1.014737874907662</v>
       </c>
       <c r="L15">
-        <v>0.9929031790951575</v>
+        <v>0.9929031790951582</v>
       </c>
       <c r="M15">
         <v>1.016343837073835</v>
       </c>
       <c r="N15">
-        <v>1.00162956868687</v>
+        <v>1.001629568686871</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,13 +995,13 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9768268179219265</v>
+        <v>0.9768268179219268</v>
       </c>
       <c r="D16">
         <v>1.005549916621557</v>
       </c>
       <c r="E16">
-        <v>0.983818124143037</v>
+        <v>0.9838181241430378</v>
       </c>
       <c r="F16">
         <v>1.0076070750133</v>
@@ -1010,22 +1010,22 @@
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.041602637112216</v>
+        <v>1.041602637112217</v>
       </c>
       <c r="J16">
         <v>1.005911158631301</v>
       </c>
       <c r="K16">
-        <v>1.01978329800054</v>
+        <v>1.019783298000541</v>
       </c>
       <c r="L16">
-        <v>0.998448268410538</v>
+        <v>0.9984482684105386</v>
       </c>
       <c r="M16">
-        <v>1.021804048132769</v>
+        <v>1.02180404813277</v>
       </c>
       <c r="N16">
-        <v>1.007339667856179</v>
+        <v>1.00733966785618</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,34 +1036,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.981185966254195</v>
+        <v>0.9811859662541942</v>
       </c>
       <c r="D17">
-        <v>1.00900680141626</v>
+        <v>1.009006801416259</v>
       </c>
       <c r="E17">
-        <v>0.9875982973642873</v>
+        <v>0.9875982973642864</v>
       </c>
       <c r="F17">
-        <v>1.011321902684648</v>
+        <v>1.011321902684647</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.043270111119552</v>
+        <v>1.043270111119551</v>
       </c>
       <c r="J17">
         <v>1.009386845351178</v>
       </c>
       <c r="K17">
-        <v>1.022858730485761</v>
+        <v>1.02285873048576</v>
       </c>
       <c r="L17">
-        <v>1.001827324575873</v>
+        <v>1.001827324575872</v>
       </c>
       <c r="M17">
-        <v>1.02513428798429</v>
+        <v>1.025134287984289</v>
       </c>
       <c r="N17">
         <v>1.010820290449866</v>
@@ -1077,16 +1077,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9836860582916271</v>
+        <v>0.9836860582916283</v>
       </c>
       <c r="D18">
         <v>1.010990529128216</v>
       </c>
       <c r="E18">
-        <v>0.9897668509685278</v>
+        <v>0.9897668509685286</v>
       </c>
       <c r="F18">
-        <v>1.013454107488795</v>
+        <v>1.013454107488796</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1095,19 +1095,19 @@
         <v>1.044224905875833</v>
       </c>
       <c r="J18">
-        <v>1.011379876744291</v>
+        <v>1.011379876744292</v>
       </c>
       <c r="K18">
-        <v>1.024622210616884</v>
+        <v>1.024622210616885</v>
       </c>
       <c r="L18">
-        <v>1.003764591136633</v>
+        <v>1.003764591136634</v>
       </c>
       <c r="M18">
-        <v>1.027044577512743</v>
+        <v>1.027044577512744</v>
       </c>
       <c r="N18">
-        <v>1.012816152176161</v>
+        <v>1.012816152176162</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9845315534289117</v>
+        <v>0.9845315534289104</v>
       </c>
       <c r="D19">
-        <v>1.011661575484103</v>
+        <v>1.011661575484102</v>
       </c>
       <c r="E19">
-        <v>0.9905003060653824</v>
+        <v>0.9905003060653811</v>
       </c>
       <c r="F19">
-        <v>1.014175457498277</v>
+        <v>1.014175457498276</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.044547536326065</v>
+        <v>1.044547536326064</v>
       </c>
       <c r="J19">
-        <v>1.012053823164502</v>
+        <v>1.0120538231645</v>
       </c>
       <c r="K19">
-        <v>1.025218525394032</v>
+        <v>1.025218525394031</v>
       </c>
       <c r="L19">
-        <v>1.004419620318415</v>
+        <v>1.004419620318414</v>
       </c>
       <c r="M19">
-        <v>1.027690653440892</v>
+        <v>1.027690653440891</v>
       </c>
       <c r="N19">
-        <v>1.013491055677591</v>
+        <v>1.01349105567759</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,16 +1159,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9807227279181595</v>
+        <v>0.9807227279181597</v>
       </c>
       <c r="D20">
         <v>1.008639327066407</v>
       </c>
       <c r="E20">
-        <v>0.9871965298603477</v>
+        <v>0.9871965298603478</v>
       </c>
       <c r="F20">
-        <v>1.010926960876958</v>
+        <v>1.010926960876959</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1180,7 +1180,7 @@
         <v>1.009017528149523</v>
       </c>
       <c r="K20">
-        <v>1.022531946547648</v>
+        <v>1.022531946547649</v>
       </c>
       <c r="L20">
         <v>1.001468312001972</v>
@@ -1200,16 +1200,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9678206889017087</v>
+        <v>0.9678206889017088</v>
       </c>
       <c r="D21">
-        <v>0.9984160768154083</v>
+        <v>0.9984160768154077</v>
       </c>
       <c r="E21">
-        <v>0.9760121900319748</v>
+        <v>0.9760121900319749</v>
       </c>
       <c r="F21">
-        <v>0.9999439573031387</v>
+        <v>0.9999439573031382</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1218,16 +1218,16 @@
         <v>1.038147734781055</v>
       </c>
       <c r="J21">
-        <v>0.9987282666730535</v>
+        <v>0.9987282666730536</v>
       </c>
       <c r="K21">
-        <v>1.013427519369904</v>
+        <v>1.013427519369903</v>
       </c>
       <c r="L21">
-        <v>0.9914627298914023</v>
+        <v>0.9914627298914026</v>
       </c>
       <c r="M21">
-        <v>1.014926391508566</v>
+        <v>1.014926391508565</v>
       </c>
       <c r="N21">
         <v>1.000146575367463</v>
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9592629012764372</v>
+        <v>0.9592629012764404</v>
       </c>
       <c r="D22">
-        <v>0.9916482760945835</v>
+        <v>0.9916482760945863</v>
       </c>
       <c r="E22">
-        <v>0.9686004834752778</v>
+        <v>0.9686004834752802</v>
       </c>
       <c r="F22">
-        <v>0.9926775386038568</v>
+        <v>0.9926775386038598</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.034854154101783</v>
+        <v>1.034854154101785</v>
       </c>
       <c r="J22">
-        <v>0.9919013851637318</v>
+        <v>0.9919013851637347</v>
       </c>
       <c r="K22">
-        <v>1.007387017921737</v>
+        <v>1.00738701792174</v>
       </c>
       <c r="L22">
-        <v>0.9848207333777621</v>
+        <v>0.9848207333777645</v>
       </c>
       <c r="M22">
-        <v>1.008395464049854</v>
+        <v>1.008395464049857</v>
       </c>
       <c r="N22">
-        <v>0.9933099989033434</v>
+        <v>0.9933099989033461</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9638452018151699</v>
+        <v>0.963845201815166</v>
       </c>
       <c r="D23">
-        <v>0.9952707514955098</v>
+        <v>0.9952707514955064</v>
       </c>
       <c r="E23">
-        <v>0.9725683836916996</v>
+        <v>0.9725683836916964</v>
       </c>
       <c r="F23">
-        <v>0.9965664940401207</v>
+        <v>0.996566494040117</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.036618895918824</v>
+        <v>1.036618895918823</v>
       </c>
       <c r="J23">
-        <v>0.9955569889338901</v>
+        <v>0.9955569889338864</v>
       </c>
       <c r="K23">
-        <v>1.010621482647581</v>
+        <v>1.010621482647578</v>
       </c>
       <c r="L23">
-        <v>0.9883776453949513</v>
+        <v>0.988377645394948</v>
       </c>
       <c r="M23">
-        <v>1.011891881058831</v>
+        <v>1.011891881058828</v>
       </c>
       <c r="N23">
-        <v>0.996970794050159</v>
+        <v>0.9969707940501554</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9809321761550571</v>
+        <v>0.9809321761550585</v>
       </c>
       <c r="D24">
-        <v>1.008805473221128</v>
+        <v>1.008805473221129</v>
       </c>
       <c r="E24">
-        <v>0.9873781831207524</v>
+        <v>0.9873781831207536</v>
       </c>
       <c r="F24">
-        <v>1.011105524469798</v>
+        <v>1.011105524469799</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.043173123052122</v>
+        <v>1.043173123052123</v>
       </c>
       <c r="J24">
-        <v>1.009184512122791</v>
+        <v>1.009184512122792</v>
       </c>
       <c r="K24">
-        <v>1.02267969954969</v>
+        <v>1.022679699549691</v>
       </c>
       <c r="L24">
-        <v>1.001630637920544</v>
+        <v>1.001630637920545</v>
       </c>
       <c r="M24">
-        <v>1.024940381635563</v>
+        <v>1.024940381635564</v>
       </c>
       <c r="N24">
-        <v>1.010617669885087</v>
+        <v>1.010617669885088</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,13 +1364,13 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9991113198531776</v>
+        <v>0.9991113198531784</v>
       </c>
       <c r="D25">
         <v>1.023246413948304</v>
       </c>
       <c r="E25">
-        <v>1.003153718045811</v>
+        <v>1.003153718045812</v>
       </c>
       <c r="F25">
         <v>1.026635323663303</v>
@@ -1382,16 +1382,16 @@
         <v>1.050087339241464</v>
       </c>
       <c r="J25">
-        <v>1.023668628687444</v>
+        <v>1.023668628687445</v>
       </c>
       <c r="K25">
-        <v>1.035494267384117</v>
+        <v>1.035494267384118</v>
       </c>
       <c r="L25">
-        <v>1.015703273084207</v>
+        <v>1.015703273084208</v>
       </c>
       <c r="M25">
-        <v>1.038833766978117</v>
+        <v>1.038833766978118</v>
       </c>
       <c r="N25">
         <v>1.025122355556614</v>

--- a/Code/Results/Cases/Case_6_17/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_6_17/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,46 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.012535247839022</v>
+        <v>1.00582304929842</v>
       </c>
       <c r="D2">
-        <v>1.033932524154696</v>
+        <v>1.029188991581073</v>
       </c>
       <c r="E2">
-        <v>1.014811210516083</v>
+        <v>1.011349461386637</v>
       </c>
       <c r="F2">
-        <v>1.038140898841033</v>
+        <v>1.033115614516721</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.05514128943625</v>
+        <v>1.052594061012877</v>
       </c>
       <c r="J2">
-        <v>1.034347388560455</v>
+        <v>1.027830978027136</v>
       </c>
       <c r="K2">
-        <v>1.0449385308081</v>
+        <v>1.04025612034351</v>
       </c>
       <c r="L2">
-        <v>1.026067987148537</v>
+        <v>1.022652912587874</v>
       </c>
       <c r="M2">
-        <v>1.049093262961021</v>
+        <v>1.044132097322539</v>
       </c>
       <c r="N2">
-        <v>1.035816280493514</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.012823142572793</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.039534843261441</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +480,46 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.021757226106311</v>
+        <v>1.01073200511415</v>
       </c>
       <c r="D3">
-        <v>1.041282683810308</v>
+        <v>1.032624985689275</v>
       </c>
       <c r="E3">
-        <v>1.022821940938249</v>
+        <v>1.01531123927094</v>
       </c>
       <c r="F3">
-        <v>1.04606262988351</v>
+        <v>1.037166297422616</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.058581494019106</v>
+        <v>1.053942051359593</v>
       </c>
       <c r="J3">
-        <v>1.041671841709688</v>
+        <v>1.030934319782938</v>
       </c>
       <c r="K3">
-        <v>1.05141324835455</v>
+        <v>1.042856771357314</v>
       </c>
       <c r="L3">
-        <v>1.033170906382285</v>
+        <v>1.025751887697296</v>
       </c>
       <c r="M3">
-        <v>1.056138196012939</v>
+        <v>1.047344727864617</v>
       </c>
       <c r="N3">
-        <v>1.043151135206346</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.013892135963868</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.041371067617633</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +527,46 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.027508475955997</v>
+        <v>1.013842613152455</v>
       </c>
       <c r="D4">
-        <v>1.045869634043714</v>
+        <v>1.034804840326034</v>
       </c>
       <c r="E4">
-        <v>1.027818132883749</v>
+        <v>1.017827853032259</v>
       </c>
       <c r="F4">
-        <v>1.051009947770864</v>
+        <v>1.039737352038616</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.060711722548456</v>
+        <v>1.054783296436007</v>
       </c>
       <c r="J4">
-        <v>1.046233759940405</v>
+        <v>1.032898731435917</v>
       </c>
       <c r="K4">
-        <v>1.055444263373199</v>
+        <v>1.044500593097646</v>
       </c>
       <c r="L4">
-        <v>1.037592021681277</v>
+        <v>1.027715769727379</v>
       </c>
       <c r="M4">
-        <v>1.060529370158286</v>
+        <v>1.049378718771108</v>
       </c>
       <c r="N4">
-        <v>1.04771953188421</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.014568654699889</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.042534280330416</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +574,46 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.029878120539368</v>
+        <v>1.015140083226744</v>
       </c>
       <c r="D5">
-        <v>1.047760145579087</v>
+        <v>1.035716479384498</v>
       </c>
       <c r="E5">
-        <v>1.029876662491181</v>
+        <v>1.018879697354826</v>
       </c>
       <c r="F5">
-        <v>1.053049868431095</v>
+        <v>1.040811637736296</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.061585688788861</v>
+        <v>1.05513251486017</v>
       </c>
       <c r="J5">
-        <v>1.048111869848512</v>
+        <v>1.033719276432087</v>
       </c>
       <c r="K5">
-        <v>1.057103369057125</v>
+        <v>1.04518784550943</v>
       </c>
       <c r="L5">
-        <v>1.039411487687369</v>
+        <v>1.028536453317327</v>
       </c>
       <c r="M5">
-        <v>1.062337941190686</v>
+        <v>1.050228349096625</v>
       </c>
       <c r="N5">
-        <v>1.049600308923809</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.014852133432269</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.043027365114984</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +621,46 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.030273264581439</v>
+        <v>1.015363054698007</v>
       </c>
       <c r="D6">
-        <v>1.048075423348111</v>
+        <v>1.035875400309979</v>
       </c>
       <c r="E6">
-        <v>1.03021992396364</v>
+        <v>1.019061386059651</v>
       </c>
       <c r="F6">
-        <v>1.05339011500017</v>
+        <v>1.040997398039226</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.061731202808998</v>
+        <v>1.055194146795486</v>
       </c>
       <c r="J6">
-        <v>1.048424958746776</v>
+        <v>1.033862317670621</v>
       </c>
       <c r="K6">
-        <v>1.057379922391228</v>
+        <v>1.045309080283257</v>
       </c>
       <c r="L6">
-        <v>1.039714760645937</v>
+        <v>1.028679337553128</v>
       </c>
       <c r="M6">
-        <v>1.062639480766656</v>
+        <v>1.05037639208249</v>
       </c>
       <c r="N6">
-        <v>1.04991384244422</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.014902686176663</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.043121795903201</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +668,46 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.02754032419607</v>
+        <v>1.013876161721891</v>
       </c>
       <c r="D7">
-        <v>1.045895040560791</v>
+        <v>1.034834344000569</v>
       </c>
       <c r="E7">
-        <v>1.027845799883273</v>
+        <v>1.017857342917256</v>
       </c>
       <c r="F7">
-        <v>1.05103735868659</v>
+        <v>1.039768014193968</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.060723483641974</v>
+        <v>1.054797168059688</v>
       </c>
       <c r="J7">
-        <v>1.046259007963218</v>
+        <v>1.032925489753781</v>
       </c>
       <c r="K7">
-        <v>1.055466569025367</v>
+        <v>1.044526902947093</v>
       </c>
       <c r="L7">
-        <v>1.037616484015156</v>
+        <v>1.02774198819462</v>
       </c>
       <c r="M7">
-        <v>1.06055368041497</v>
+        <v>1.049406196307173</v>
       </c>
       <c r="N7">
-        <v>1.047744815762111</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.014581005716284</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.04257291984878</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +715,46 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.015698827057887</v>
+        <v>1.00751639541101</v>
       </c>
       <c r="D8">
-        <v>1.0364532370466</v>
+        <v>1.030380930797545</v>
       </c>
       <c r="E8">
-        <v>1.017559142292053</v>
+        <v>1.012717799239846</v>
       </c>
       <c r="F8">
-        <v>1.040856853424458</v>
+        <v>1.034515462358907</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.056324624962414</v>
+        <v>1.053067554073646</v>
       </c>
       <c r="J8">
-        <v>1.036861237698708</v>
+        <v>1.028908787240729</v>
       </c>
       <c r="K8">
-        <v>1.047161067748788</v>
+        <v>1.041164516709761</v>
       </c>
       <c r="L8">
-        <v>1.028506402964319</v>
+        <v>1.023728212061096</v>
       </c>
       <c r="M8">
-        <v>1.051510434470201</v>
+        <v>1.045247347451008</v>
       </c>
       <c r="N8">
-        <v>1.038333699585886</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.013198541387195</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.04020001856511</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +762,46 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9929966966518846</v>
+        <v>0.9957506139073062</v>
       </c>
       <c r="D9">
-        <v>1.018384889155732</v>
+        <v>1.022156443770569</v>
       </c>
       <c r="E9">
-        <v>0.9978457836290521</v>
+        <v>1.003257364903548</v>
       </c>
       <c r="F9">
-        <v>1.021405027625877</v>
+        <v>1.024830977336261</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.047769736936403</v>
+        <v>1.049759553613543</v>
       </c>
       <c r="J9">
-        <v>1.018799206777358</v>
+        <v>1.021454326523904</v>
       </c>
       <c r="K9">
-        <v>1.03118656386074</v>
+        <v>1.034899992515368</v>
       </c>
       <c r="L9">
-        <v>1.010973908449542</v>
+        <v>1.016297813783096</v>
       </c>
       <c r="M9">
-        <v>1.034160113248165</v>
+        <v>1.037533637621317</v>
       </c>
       <c r="N9">
-        <v>1.020246018508884</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.010626568754873</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.035767397049083</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +809,46 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9763282467452004</v>
+        <v>0.9875108467911535</v>
       </c>
       <c r="D10">
-        <v>1.005154700896299</v>
+        <v>1.016419509233868</v>
       </c>
       <c r="E10">
-        <v>0.9833858492523402</v>
+        <v>0.996672051880885</v>
       </c>
       <c r="F10">
-        <v>1.007182432242528</v>
+        <v>1.018079716369991</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.041411713312699</v>
+        <v>1.047379827250377</v>
       </c>
       <c r="J10">
-        <v>1.0055135852262</v>
+        <v>1.016228893030565</v>
       </c>
       <c r="K10">
-        <v>1.019431505182822</v>
+        <v>1.030498500521408</v>
       </c>
       <c r="L10">
-        <v>0.9980616995617185</v>
+        <v>1.011101654559723</v>
       </c>
       <c r="M10">
-        <v>1.02142320538118</v>
+        <v>1.032130032614458</v>
       </c>
       <c r="N10">
-        <v>1.006941529851242</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.008824964638399</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.032672092895086</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +856,46 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9686629802317168</v>
+        <v>0.9838587803096701</v>
       </c>
       <c r="D11">
-        <v>0.9990827781360549</v>
+        <v>1.013889636384362</v>
       </c>
       <c r="E11">
-        <v>0.9767419883538973</v>
+        <v>0.9937671259821974</v>
       </c>
       <c r="F11">
-        <v>1.000659957333325</v>
+        <v>1.015098748557425</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.038471370951541</v>
+        <v>1.046315844404473</v>
       </c>
       <c r="J11">
-        <v>0.9994001311209861</v>
+        <v>1.013918818812024</v>
       </c>
       <c r="K11">
-        <v>1.01402201267215</v>
+        <v>1.02855428352652</v>
       </c>
       <c r="L11">
-        <v>0.9921162620405908</v>
+        <v>1.00880755025471</v>
       </c>
       <c r="M11">
-        <v>1.015569438548389</v>
+        <v>1.029741433348613</v>
       </c>
       <c r="N11">
-        <v>1.000819393939975</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.0080335475449</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.031330416453546</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +903,46 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9657396943356951</v>
+        <v>0.9824736371596577</v>
       </c>
       <c r="D12">
-        <v>0.9967693445618808</v>
+        <v>1.012927243767296</v>
       </c>
       <c r="E12">
-        <v>0.9742093546359764</v>
+        <v>0.9926649403385087</v>
       </c>
       <c r="F12">
-        <v>0.9981755996168766</v>
+        <v>1.013967665751822</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.037347721515741</v>
+        <v>1.045907256557018</v>
       </c>
       <c r="J12">
-        <v>0.9970682744779249</v>
+        <v>1.013038722301076</v>
       </c>
       <c r="K12">
-        <v>1.01195870167203</v>
+        <v>1.027810899335635</v>
       </c>
       <c r="L12">
-        <v>0.9898479238168839</v>
+        <v>1.00793403078368</v>
       </c>
       <c r="M12">
-        <v>1.013337835925049</v>
+        <v>1.02883207211215</v>
       </c>
       <c r="N12">
-        <v>0.9984842257930129</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.007729395304074</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.030804814656338</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +950,46 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9663703508516018</v>
+        <v>0.9827691948246269</v>
       </c>
       <c r="D13">
-        <v>0.9972683284598179</v>
+        <v>1.013131800228454</v>
       </c>
       <c r="E13">
-        <v>0.9747556785598325</v>
+        <v>0.9928996431935162</v>
       </c>
       <c r="F13">
-        <v>0.9987114167751807</v>
+        <v>1.014208603296523</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.037590232921454</v>
+        <v>1.045993970440196</v>
       </c>
       <c r="J13">
-        <v>0.9975713524513417</v>
+        <v>1.013225766939033</v>
       </c>
       <c r="K13">
-        <v>1.012403840257484</v>
+        <v>1.02796846297195</v>
       </c>
       <c r="L13">
-        <v>0.9903373237468512</v>
+        <v>1.008119654999284</v>
       </c>
       <c r="M13">
-        <v>1.013819228667827</v>
+        <v>1.029025421798869</v>
       </c>
       <c r="N13">
-        <v>0.9989880181948561</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.007793505985338</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.030913711913001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +997,46 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9684229490812989</v>
+        <v>0.9837436370629496</v>
       </c>
       <c r="D14">
-        <v>0.9988927751183727</v>
+        <v>1.013809293580185</v>
       </c>
       <c r="E14">
-        <v>0.9765340093956095</v>
+        <v>0.9936752991029135</v>
       </c>
       <c r="F14">
-        <v>1.000455901310517</v>
+        <v>1.015004547715308</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.038379153366097</v>
+        <v>1.04628168104649</v>
       </c>
       <c r="J14">
-        <v>0.9992086687466983</v>
+        <v>1.013845339691453</v>
       </c>
       <c r="K14">
-        <v>1.013852598647208</v>
+        <v>1.028492036207276</v>
       </c>
       <c r="L14">
-        <v>0.991930026445721</v>
+        <v>1.008734610762059</v>
       </c>
       <c r="M14">
-        <v>1.015386182700387</v>
+        <v>1.029665546462584</v>
       </c>
       <c r="N14">
-        <v>1.000627659667155</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.008007928709018</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.031285331673605</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1044,46 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9696772516808276</v>
+        <v>0.9843463794769889</v>
       </c>
       <c r="D15">
-        <v>0.999885743138447</v>
+        <v>1.014229986943181</v>
       </c>
       <c r="E15">
-        <v>0.9776208676397202</v>
+        <v>0.9941560926981544</v>
       </c>
       <c r="F15">
-        <v>1.001522341182004</v>
+        <v>1.015497756109391</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.038860952047281</v>
+        <v>1.046460490212126</v>
       </c>
       <c r="J15">
-        <v>1.000209156958396</v>
+        <v>1.014230055953652</v>
       </c>
       <c r="K15">
-        <v>1.014737874907662</v>
+        <v>1.028817979581151</v>
       </c>
       <c r="L15">
-        <v>0.9929031790951582</v>
+        <v>1.009116518729862</v>
       </c>
       <c r="M15">
-        <v>1.016343837073835</v>
+        <v>1.030062870150239</v>
       </c>
       <c r="N15">
-        <v>1.001629568686871</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.008142113867971</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.031521688103172</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1091,46 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9768268179219268</v>
+        <v>0.9877906017860197</v>
       </c>
       <c r="D16">
-        <v>1.005549916621557</v>
+        <v>1.016626507340348</v>
       </c>
       <c r="E16">
-        <v>0.9838181241430378</v>
+        <v>0.996901589433843</v>
       </c>
       <c r="F16">
-        <v>1.0076070750133</v>
+        <v>1.018314367309495</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.041602637112217</v>
+        <v>1.047470902670285</v>
       </c>
       <c r="J16">
-        <v>1.005911158631301</v>
+        <v>1.016418784065001</v>
       </c>
       <c r="K16">
-        <v>1.019783298000541</v>
+        <v>1.030666100942571</v>
       </c>
       <c r="L16">
-        <v>0.9984482684105386</v>
+        <v>1.011290169913453</v>
       </c>
       <c r="M16">
-        <v>1.02180404813277</v>
+        <v>1.032324909847754</v>
       </c>
       <c r="N16">
-        <v>1.00733966785618</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.008898943298302</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.032831560005558</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1138,46 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9811859662541942</v>
+        <v>0.989921793966495</v>
       </c>
       <c r="D17">
-        <v>1.009006801416259</v>
+        <v>1.018111048009701</v>
       </c>
       <c r="E17">
-        <v>0.9875982973642864</v>
+        <v>0.9986031270191217</v>
       </c>
       <c r="F17">
-        <v>1.011321902684647</v>
+        <v>1.020059452742291</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.043270111119551</v>
+        <v>1.04809231490581</v>
       </c>
       <c r="J17">
-        <v>1.009386845351178</v>
+        <v>1.017772848787669</v>
       </c>
       <c r="K17">
-        <v>1.02285873048576</v>
+        <v>1.031808805845016</v>
       </c>
       <c r="L17">
-        <v>1.001827324575872</v>
+        <v>1.012635692888304</v>
       </c>
       <c r="M17">
-        <v>1.025134287984289</v>
+        <v>1.033724676819661</v>
       </c>
       <c r="N17">
-        <v>1.010820290449866</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.009367137180063</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.033642089588481</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1185,46 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9836860582916283</v>
+        <v>0.9911425346945744</v>
       </c>
       <c r="D18">
-        <v>1.010990529128216</v>
+        <v>1.018957933393445</v>
       </c>
       <c r="E18">
-        <v>0.9897668509685286</v>
+        <v>0.9995766801358048</v>
       </c>
       <c r="F18">
-        <v>1.013454107488796</v>
+        <v>1.021057919163214</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.044224905875833</v>
+        <v>1.048443815837594</v>
       </c>
       <c r="J18">
-        <v>1.011379876744292</v>
+        <v>1.018544393822602</v>
       </c>
       <c r="K18">
-        <v>1.024622210616885</v>
+        <v>1.032457259779222</v>
       </c>
       <c r="L18">
-        <v>1.003764591136634</v>
+        <v>1.013402724634827</v>
       </c>
       <c r="M18">
-        <v>1.027044577512744</v>
+        <v>1.034522802580051</v>
       </c>
       <c r="N18">
-        <v>1.012816152176162</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.00963124104477</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.034088892839094</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1232,46 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9845315534289104</v>
+        <v>0.9915664344424655</v>
       </c>
       <c r="D19">
-        <v>1.011661575484102</v>
+        <v>1.01925522553476</v>
       </c>
       <c r="E19">
-        <v>0.9905003060653811</v>
+        <v>0.999916476834843</v>
       </c>
       <c r="F19">
-        <v>1.014175457498276</v>
+        <v>1.021406226714419</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.044547536326064</v>
+        <v>1.048568022441294</v>
       </c>
       <c r="J19">
-        <v>1.0120538231645</v>
+        <v>1.018815366774188</v>
       </c>
       <c r="K19">
-        <v>1.025218525394031</v>
+        <v>1.032686857742779</v>
       </c>
       <c r="L19">
-        <v>1.004419620318414</v>
+        <v>1.013672100981607</v>
       </c>
       <c r="M19">
-        <v>1.027690653440891</v>
+        <v>1.034802796068825</v>
       </c>
       <c r="N19">
-        <v>1.01349105567759</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.009726081607333</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.034257638749933</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1279,46 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9807227279181597</v>
+        <v>0.9896932592121157</v>
       </c>
       <c r="D20">
-        <v>1.008639327066407</v>
+        <v>1.017951486619558</v>
       </c>
       <c r="E20">
-        <v>0.9871965298603478</v>
+        <v>0.9984204083299699</v>
       </c>
       <c r="F20">
-        <v>1.010926960876959</v>
+        <v>1.019872094870764</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.043093071793271</v>
+        <v>1.048025586294498</v>
       </c>
       <c r="J20">
-        <v>1.009017528149523</v>
+        <v>1.017627352546336</v>
       </c>
       <c r="K20">
-        <v>1.022531946547649</v>
+        <v>1.031685858177637</v>
       </c>
       <c r="L20">
-        <v>1.001468312001972</v>
+        <v>1.012491089935459</v>
       </c>
       <c r="M20">
-        <v>1.024780356034086</v>
+        <v>1.033574291439722</v>
       </c>
       <c r="N20">
-        <v>1.010450448775423</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.009316621422329</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.03355382136118</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1326,46 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9678206889017088</v>
+        <v>0.9834703108171254</v>
       </c>
       <c r="D21">
-        <v>0.9984160768154077</v>
+        <v>1.013623437297265</v>
       </c>
       <c r="E21">
-        <v>0.9760121900319749</v>
+        <v>0.9934599497390219</v>
       </c>
       <c r="F21">
-        <v>0.9999439573031382</v>
+        <v>1.01478320334441</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.038147734781055</v>
+        <v>1.046204202125151</v>
       </c>
       <c r="J21">
-        <v>0.9987282666730536</v>
+        <v>1.013675765400738</v>
       </c>
       <c r="K21">
-        <v>1.013427519369903</v>
+        <v>1.028351225800741</v>
       </c>
       <c r="L21">
-        <v>0.9914627298914026</v>
+        <v>1.008566293807124</v>
       </c>
       <c r="M21">
-        <v>1.014926391508565</v>
+        <v>1.029489813506155</v>
       </c>
       <c r="N21">
-        <v>1.000146575367463</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.007952201460157</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.031199356621385</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1373,46 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9592629012764404</v>
+        <v>0.9794421131708944</v>
       </c>
       <c r="D22">
-        <v>0.9916482760945863</v>
+        <v>1.010822392047471</v>
       </c>
       <c r="E22">
-        <v>0.9686004834752802</v>
+        <v>0.990255449532406</v>
       </c>
       <c r="F22">
-        <v>0.9926775386038598</v>
+        <v>1.01149452826436</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.034854154101785</v>
+        <v>1.045008814699593</v>
       </c>
       <c r="J22">
-        <v>0.9919013851637347</v>
+        <v>1.011111902884306</v>
       </c>
       <c r="K22">
-        <v>1.00738701792174</v>
+        <v>1.026182461316449</v>
       </c>
       <c r="L22">
-        <v>0.9848207333777645</v>
+        <v>1.006022451462522</v>
       </c>
       <c r="M22">
-        <v>1.008395464049857</v>
+        <v>1.026841664428549</v>
       </c>
       <c r="N22">
-        <v>0.9933099989033461</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.007063156422142</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.029652366717311</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1420,46 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.963845201815166</v>
+        <v>0.981571506509008</v>
       </c>
       <c r="D23">
-        <v>0.9952707514955064</v>
+        <v>1.012297475173598</v>
       </c>
       <c r="E23">
-        <v>0.9725683836916964</v>
+        <v>0.9919457816463935</v>
       </c>
       <c r="F23">
-        <v>0.996566494040117</v>
+        <v>1.013229884961694</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.036618895918823</v>
+        <v>1.045638096603413</v>
       </c>
       <c r="J23">
-        <v>0.9955569889338864</v>
+        <v>1.012462215396807</v>
       </c>
       <c r="K23">
-        <v>1.010621482647578</v>
+        <v>1.027321927869294</v>
       </c>
       <c r="L23">
-        <v>0.988377645394948</v>
+        <v>1.007361945661136</v>
       </c>
       <c r="M23">
-        <v>1.011891881058828</v>
+        <v>1.028236883500889</v>
       </c>
       <c r="N23">
-        <v>0.9969707940501554</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.007527834834496</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.030448335150743</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1467,46 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9809321761550585</v>
+        <v>0.9897709860338697</v>
       </c>
       <c r="D24">
-        <v>1.008805473221129</v>
+        <v>1.017997376670682</v>
       </c>
       <c r="E24">
-        <v>0.9873781831207536</v>
+        <v>0.9984782891316885</v>
       </c>
       <c r="F24">
-        <v>1.011105524469799</v>
+        <v>1.019931892997811</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.043173123052123</v>
+        <v>1.048041887993963</v>
       </c>
       <c r="J24">
-        <v>1.009184512122792</v>
+        <v>1.017668559928975</v>
       </c>
       <c r="K24">
-        <v>1.022679699549691</v>
+        <v>1.03171564157815</v>
       </c>
       <c r="L24">
-        <v>1.001630637920545</v>
+        <v>1.01253218052115</v>
       </c>
       <c r="M24">
-        <v>1.024940381635564</v>
+        <v>1.033617795804147</v>
       </c>
       <c r="N24">
-        <v>1.010617669885088</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.009325326331938</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.033547389195437</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1514,43 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9991113198531784</v>
+        <v>0.9988860866797939</v>
       </c>
       <c r="D25">
-        <v>1.023246413948304</v>
+        <v>1.024353923729828</v>
       </c>
       <c r="E25">
-        <v>1.003153718045812</v>
+        <v>1.005776207620539</v>
       </c>
       <c r="F25">
-        <v>1.026635323663303</v>
+        <v>1.027411223008701</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.050087339241464</v>
+        <v>1.05065957233365</v>
       </c>
       <c r="J25">
-        <v>1.023668628687445</v>
+        <v>1.02345099669117</v>
       </c>
       <c r="K25">
-        <v>1.035494267384118</v>
+        <v>1.036585584105082</v>
       </c>
       <c r="L25">
-        <v>1.015703273084208</v>
+        <v>1.018285512316127</v>
       </c>
       <c r="M25">
-        <v>1.038833766978118</v>
+        <v>1.039598411886617</v>
       </c>
       <c r="N25">
-        <v>1.025122355556614</v>
+        <v>1.011321082078995</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.036987825915493</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_17/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_6_17/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,46 +439,55 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.00582304929842</v>
+        <v>1.005217418894597</v>
       </c>
       <c r="D2">
-        <v>1.029188991581073</v>
+        <v>1.028080364961875</v>
       </c>
       <c r="E2">
-        <v>1.011349461386637</v>
+        <v>1.010863856861951</v>
       </c>
       <c r="F2">
-        <v>1.033115614516721</v>
+        <v>1.032141061679118</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.052594061012877</v>
+        <v>1.052009016870325</v>
       </c>
       <c r="J2">
-        <v>1.027830978027136</v>
+        <v>1.0272431898965</v>
       </c>
       <c r="K2">
-        <v>1.04025612034351</v>
+        <v>1.039161880568877</v>
       </c>
       <c r="L2">
-        <v>1.022652912587874</v>
+        <v>1.022173887604269</v>
       </c>
       <c r="M2">
-        <v>1.044132097322539</v>
+        <v>1.043170069399929</v>
       </c>
       <c r="N2">
-        <v>1.012823142572793</v>
+        <v>1.014199436730584</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.039534843261441</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.038769886745258</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.02240501906681</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -480,46 +495,55 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.01073200511415</v>
+        <v>1.00977976429911</v>
       </c>
       <c r="D3">
-        <v>1.032624985689275</v>
+        <v>1.031150945323332</v>
       </c>
       <c r="E3">
-        <v>1.01531123927094</v>
+        <v>1.014519387970811</v>
       </c>
       <c r="F3">
-        <v>1.037166297422616</v>
+        <v>1.035843557000653</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.053942051359593</v>
+        <v>1.053162072455698</v>
       </c>
       <c r="J3">
-        <v>1.030934319782938</v>
+        <v>1.030007327634084</v>
       </c>
       <c r="K3">
-        <v>1.042856771357314</v>
+        <v>1.041400174443161</v>
       </c>
       <c r="L3">
-        <v>1.025751887697296</v>
+        <v>1.024969800957616</v>
       </c>
       <c r="M3">
-        <v>1.047344727864617</v>
+        <v>1.046037468377726</v>
       </c>
       <c r="N3">
-        <v>1.013892135963868</v>
+        <v>1.014951732388063</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.041371067617633</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.040349611440088</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.022903040487274</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -527,46 +551,55 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.013842613152455</v>
+        <v>1.01267368236637</v>
       </c>
       <c r="D4">
-        <v>1.034804840326034</v>
+        <v>1.033101130468689</v>
       </c>
       <c r="E4">
-        <v>1.017827853032259</v>
+        <v>1.016844311038967</v>
       </c>
       <c r="F4">
-        <v>1.039737352038616</v>
+        <v>1.038196169657164</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.054783296436007</v>
+        <v>1.053880579255061</v>
       </c>
       <c r="J4">
-        <v>1.032898731435917</v>
+        <v>1.03175865767947</v>
       </c>
       <c r="K4">
-        <v>1.044500593097646</v>
+        <v>1.042815816843485</v>
       </c>
       <c r="L4">
-        <v>1.027715769727379</v>
+        <v>1.026743603453419</v>
       </c>
       <c r="M4">
-        <v>1.049378718771108</v>
+        <v>1.047854461315218</v>
       </c>
       <c r="N4">
-        <v>1.014568654699889</v>
+        <v>1.015428424837391</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.042534280330416</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.041351561935194</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.023215599668395</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -574,46 +607,55 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.015140083226744</v>
+        <v>1.013881198475912</v>
       </c>
       <c r="D5">
-        <v>1.035716479384498</v>
+        <v>1.033917312651115</v>
       </c>
       <c r="E5">
-        <v>1.018879697354826</v>
+        <v>1.017816476492625</v>
       </c>
       <c r="F5">
-        <v>1.040811637736296</v>
+        <v>1.03917972306283</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.05513251486017</v>
+        <v>1.054178731990158</v>
       </c>
       <c r="J5">
-        <v>1.033719276432087</v>
+        <v>1.032490523786959</v>
       </c>
       <c r="K5">
-        <v>1.04518784550943</v>
+        <v>1.043408135914649</v>
       </c>
       <c r="L5">
-        <v>1.028536453317327</v>
+        <v>1.027485193144622</v>
       </c>
       <c r="M5">
-        <v>1.050228349096625</v>
+        <v>1.048613868190882</v>
       </c>
       <c r="N5">
-        <v>1.014852133432269</v>
+        <v>1.015628282918347</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.043027365114984</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.04177823341983</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.023346414633486</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -621,46 +663,55 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.015363054698007</v>
+        <v>1.014088467802296</v>
       </c>
       <c r="D6">
-        <v>1.035875400309979</v>
+        <v>1.034059749987473</v>
       </c>
       <c r="E6">
-        <v>1.019061386059651</v>
+        <v>1.01798418550331</v>
       </c>
       <c r="F6">
-        <v>1.040997398039226</v>
+        <v>1.039349782913275</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.055194146795486</v>
+        <v>1.054231542439357</v>
       </c>
       <c r="J6">
-        <v>1.033862317670621</v>
+        <v>1.03261807882075</v>
       </c>
       <c r="K6">
-        <v>1.045309080283257</v>
+        <v>1.043512974501418</v>
       </c>
       <c r="L6">
-        <v>1.028679337553128</v>
+        <v>1.027614197859207</v>
       </c>
       <c r="M6">
-        <v>1.05037639208249</v>
+        <v>1.048746296022655</v>
       </c>
       <c r="N6">
-        <v>1.014902686176663</v>
+        <v>1.015663899038402</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.043121795903201</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.041861942357612</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.023370292850349</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -668,46 +719,55 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.013876161721891</v>
+        <v>1.01271575067071</v>
       </c>
       <c r="D7">
-        <v>1.034834344000569</v>
+        <v>1.033136083527531</v>
       </c>
       <c r="E7">
-        <v>1.017857342917256</v>
+        <v>1.016881629528049</v>
       </c>
       <c r="F7">
-        <v>1.039768014193968</v>
+        <v>1.038232835897318</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.054797168059688</v>
+        <v>1.053897393093838</v>
       </c>
       <c r="J7">
-        <v>1.032925489753781</v>
+        <v>1.031793712081357</v>
       </c>
       <c r="K7">
-        <v>1.044526902947093</v>
+        <v>1.042847507784389</v>
       </c>
       <c r="L7">
-        <v>1.02774198819462</v>
+        <v>1.026777555287437</v>
       </c>
       <c r="M7">
-        <v>1.049406196307173</v>
+        <v>1.047887870051006</v>
       </c>
       <c r="N7">
-        <v>1.014581005716284</v>
+        <v>1.015466791955744</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.04257291984878</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.041396011114737</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.023225607936339</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -715,46 +775,55 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.00751639541101</v>
+        <v>1.00682540173926</v>
       </c>
       <c r="D8">
-        <v>1.030380930797545</v>
+        <v>1.02917086181764</v>
       </c>
       <c r="E8">
-        <v>1.012717799239846</v>
+        <v>1.012158214692888</v>
       </c>
       <c r="F8">
-        <v>1.034515462358907</v>
+        <v>1.033446844933482</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.053067554073646</v>
+        <v>1.052428542623006</v>
       </c>
       <c r="J8">
-        <v>1.028908787240729</v>
+        <v>1.028237449363318</v>
       </c>
       <c r="K8">
-        <v>1.041164516709761</v>
+        <v>1.039969677234011</v>
       </c>
       <c r="L8">
-        <v>1.023728212061096</v>
+        <v>1.023175975750769</v>
       </c>
       <c r="M8">
-        <v>1.045247347451008</v>
+        <v>1.044192043297206</v>
       </c>
       <c r="N8">
-        <v>1.013198541387195</v>
+        <v>1.014554142755186</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.04020001856511</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.039366197879688</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.022590840280231</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -762,46 +831,55 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9957506139073062</v>
+        <v>0.9959161825855308</v>
       </c>
       <c r="D9">
-        <v>1.022156443770569</v>
+        <v>1.02183877006536</v>
       </c>
       <c r="E9">
-        <v>1.003257364903548</v>
+        <v>1.003453373284868</v>
       </c>
       <c r="F9">
-        <v>1.024830977336261</v>
+        <v>1.024615963716135</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.049759553613543</v>
+        <v>1.049595290430032</v>
       </c>
       <c r="J9">
-        <v>1.021454326523904</v>
+        <v>1.021613979775931</v>
       </c>
       <c r="K9">
-        <v>1.034899992515368</v>
+        <v>1.034587193575616</v>
       </c>
       <c r="L9">
-        <v>1.016297813783096</v>
+        <v>1.016490669294517</v>
       </c>
       <c r="M9">
-        <v>1.037533637621317</v>
+        <v>1.037321901083707</v>
       </c>
       <c r="N9">
-        <v>1.010626568754873</v>
+        <v>1.012759724609611</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.035767397049083</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.035556981877279</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.021377821464992</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -809,46 +887,55 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9875108467911535</v>
+        <v>0.9883507324463796</v>
       </c>
       <c r="D10">
-        <v>1.016419509233868</v>
+        <v>1.016777966892624</v>
       </c>
       <c r="E10">
-        <v>0.996672051880885</v>
+        <v>0.9974632277935214</v>
       </c>
       <c r="F10">
-        <v>1.018079716369991</v>
+        <v>1.018518541992017</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.047379827250377</v>
+        <v>1.047574123202726</v>
       </c>
       <c r="J10">
-        <v>1.016228893030565</v>
+        <v>1.017034288046334</v>
       </c>
       <c r="K10">
-        <v>1.030498500521408</v>
+        <v>1.030850756657155</v>
       </c>
       <c r="L10">
-        <v>1.011101654559723</v>
+        <v>1.011878436000918</v>
       </c>
       <c r="M10">
-        <v>1.032130032614458</v>
+        <v>1.032561299051555</v>
       </c>
       <c r="N10">
-        <v>1.008824964638399</v>
+        <v>1.011635979700038</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.032672092895086</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.032933612678019</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.020528581017281</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -856,93 +943,111 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9838587803096701</v>
+        <v>0.9850887075070707</v>
       </c>
       <c r="D11">
-        <v>1.013889636384362</v>
+        <v>1.01461279866445</v>
       </c>
       <c r="E11">
-        <v>0.9937671259821974</v>
+        <v>0.9949064855249459</v>
       </c>
       <c r="F11">
-        <v>1.015098748557425</v>
+        <v>1.015897015441278</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.046315844404473</v>
+        <v>1.046703509162107</v>
       </c>
       <c r="J11">
-        <v>1.013918818812024</v>
+        <v>1.015095245333659</v>
       </c>
       <c r="K11">
-        <v>1.02855428352652</v>
+        <v>1.029264302080063</v>
       </c>
       <c r="L11">
-        <v>1.00880755025471</v>
+        <v>1.009925101600612</v>
       </c>
       <c r="M11">
-        <v>1.029741433348613</v>
+        <v>1.030525237746745</v>
       </c>
       <c r="N11">
-        <v>1.0080335475449</v>
+        <v>1.011351749753502</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.031330416453546</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.031848108660153</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.020175547456668</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C12">
-        <v>0.9824736371596577</v>
+        <v>0.9838613895982681</v>
       </c>
       <c r="D12">
-        <v>1.012927243767296</v>
+        <v>1.01379563222682</v>
       </c>
       <c r="E12">
-        <v>0.9926649403385087</v>
+        <v>0.9939458264531306</v>
       </c>
       <c r="F12">
-        <v>1.013967665751822</v>
+        <v>1.014909736943683</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.045907256557018</v>
+        <v>1.046371890950814</v>
       </c>
       <c r="J12">
-        <v>1.013038722301076</v>
+        <v>1.014364824828674</v>
       </c>
       <c r="K12">
-        <v>1.027810899335635</v>
+        <v>1.028663217885057</v>
       </c>
       <c r="L12">
-        <v>1.00793403078368</v>
+        <v>1.00918994134575</v>
       </c>
       <c r="M12">
-        <v>1.02883207211215</v>
+        <v>1.029756758085694</v>
       </c>
       <c r="N12">
-        <v>1.007729395304074</v>
+        <v>1.011260025182836</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.030804814656338</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.031423128122511</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.020040764925771</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -950,46 +1055,55 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9827691948246269</v>
+        <v>0.984123001245549</v>
       </c>
       <c r="D13">
-        <v>1.013131800228454</v>
+        <v>1.013968971209332</v>
       </c>
       <c r="E13">
-        <v>0.9928996431935162</v>
+        <v>0.994150113951673</v>
       </c>
       <c r="F13">
-        <v>1.014208603296523</v>
+        <v>1.015119749334168</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.045993970440196</v>
+        <v>1.046442061971577</v>
       </c>
       <c r="J13">
-        <v>1.013225766939033</v>
+        <v>1.014519701050148</v>
       </c>
       <c r="K13">
-        <v>1.02796846297195</v>
+        <v>1.028790201104269</v>
       </c>
       <c r="L13">
-        <v>1.008119654999284</v>
+        <v>1.009345839457732</v>
       </c>
       <c r="M13">
-        <v>1.029025421798869</v>
+        <v>1.02991981929643</v>
       </c>
       <c r="N13">
-        <v>1.007793505985338</v>
+        <v>1.011278134316894</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.030913711913001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.031510160765064</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.020068929063869</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -997,46 +1111,55 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9837436370629496</v>
+        <v>0.9849865541677912</v>
       </c>
       <c r="D14">
-        <v>1.013809293580185</v>
+        <v>1.014544419633824</v>
       </c>
       <c r="E14">
-        <v>0.9936752991029135</v>
+        <v>0.9948263167661491</v>
       </c>
       <c r="F14">
-        <v>1.015004547715308</v>
+        <v>1.015814654775453</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.04628168104649</v>
+        <v>1.046675687613386</v>
       </c>
       <c r="J14">
-        <v>1.013845339691453</v>
+        <v>1.015034096391146</v>
       </c>
       <c r="K14">
-        <v>1.028492036207276</v>
+        <v>1.029213781068822</v>
       </c>
       <c r="L14">
-        <v>1.008734610762059</v>
+        <v>1.009863563115099</v>
       </c>
       <c r="M14">
-        <v>1.029665546462584</v>
+        <v>1.030460954020199</v>
       </c>
       <c r="N14">
-        <v>1.008007928709018</v>
+        <v>1.011343471434504</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.031285331673605</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.031811212313259</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.020164085797707</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1044,46 +1167,55 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9843463794769889</v>
+        <v>0.9855216567646931</v>
       </c>
       <c r="D15">
-        <v>1.014229986943181</v>
+        <v>1.014902747797239</v>
       </c>
       <c r="E15">
-        <v>0.9941560926981544</v>
+        <v>0.9952464190606661</v>
       </c>
       <c r="F15">
-        <v>1.015497756109391</v>
+        <v>1.01624616433337</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.046460490212126</v>
+        <v>1.046821436413908</v>
       </c>
       <c r="J15">
-        <v>1.014230055953652</v>
+        <v>1.015354588321878</v>
       </c>
       <c r="K15">
-        <v>1.028817979581151</v>
+        <v>1.029478590309096</v>
       </c>
       <c r="L15">
-        <v>1.009116518729862</v>
+        <v>1.010186111573941</v>
       </c>
       <c r="M15">
-        <v>1.030062870150239</v>
+        <v>1.030797807162493</v>
       </c>
       <c r="N15">
-        <v>1.008142113867971</v>
+        <v>1.011387633674883</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.031521688103172</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.032004908405886</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.020224211660251</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1091,46 +1223,55 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9877906017860197</v>
+        <v>0.9886002063295797</v>
       </c>
       <c r="D16">
-        <v>1.016626507340348</v>
+        <v>1.016957365120474</v>
       </c>
       <c r="E16">
-        <v>0.996901589433843</v>
+        <v>0.997665130358994</v>
       </c>
       <c r="F16">
-        <v>1.018314367309495</v>
+        <v>1.018725879499002</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.047470902670285</v>
+        <v>1.047650549846404</v>
       </c>
       <c r="J16">
-        <v>1.016418784065001</v>
+        <v>1.017195273502551</v>
       </c>
       <c r="K16">
-        <v>1.030666100942571</v>
+        <v>1.030991254247069</v>
       </c>
       <c r="L16">
-        <v>1.011290169913453</v>
+        <v>1.012039867828502</v>
       </c>
       <c r="M16">
-        <v>1.032324909847754</v>
+        <v>1.032729358047966</v>
       </c>
       <c r="N16">
-        <v>1.008898943298302</v>
+        <v>1.011672277315807</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.032831560005558</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.033077884676473</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.020564991775481</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1138,46 +1279,55 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.989921793966495</v>
+        <v>0.9905239523316315</v>
       </c>
       <c r="D17">
-        <v>1.018111048009701</v>
+        <v>1.018243731310793</v>
       </c>
       <c r="E17">
-        <v>0.9986031270191217</v>
+        <v>0.99918200194193</v>
       </c>
       <c r="F17">
-        <v>1.020059452742291</v>
+        <v>1.020276893649511</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.04809231490581</v>
+        <v>1.048166837025468</v>
       </c>
       <c r="J17">
-        <v>1.017772848787669</v>
+        <v>1.018351215407913</v>
       </c>
       <c r="K17">
-        <v>1.031808805845016</v>
+        <v>1.03193926855683</v>
       </c>
       <c r="L17">
-        <v>1.012635692888304</v>
+        <v>1.013204388844587</v>
       </c>
       <c r="M17">
-        <v>1.033724676819661</v>
+        <v>1.03393849690445</v>
       </c>
       <c r="N17">
-        <v>1.009367137180063</v>
+        <v>1.011888936622336</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.033642089588481</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.033750999408945</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.020779444804168</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1185,46 +1335,55 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9911425346945744</v>
+        <v>0.9916338028959996</v>
       </c>
       <c r="D18">
-        <v>1.018957933393445</v>
+        <v>1.018982532348149</v>
       </c>
       <c r="E18">
-        <v>0.9995766801358048</v>
+        <v>1.00005730424736</v>
       </c>
       <c r="F18">
-        <v>1.021057919163214</v>
+        <v>1.02117007182</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.048443815837594</v>
+        <v>1.048460996465177</v>
       </c>
       <c r="J18">
-        <v>1.018544393822602</v>
+        <v>1.019016644012046</v>
       </c>
       <c r="K18">
-        <v>1.032457259779222</v>
+        <v>1.03248145421665</v>
       </c>
       <c r="L18">
-        <v>1.013402724634827</v>
+        <v>1.013875048618659</v>
       </c>
       <c r="M18">
-        <v>1.034522802580051</v>
+        <v>1.034633120884275</v>
       </c>
       <c r="N18">
-        <v>1.00963124104477</v>
+        <v>1.012025893045556</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.034088892839094</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.034121529404447</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.020900896413068</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1232,46 +1391,55 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9915664344424655</v>
+        <v>0.9920199289349939</v>
       </c>
       <c r="D19">
-        <v>1.01925522553476</v>
+        <v>1.019242957720244</v>
       </c>
       <c r="E19">
-        <v>0.999916476834843</v>
+        <v>1.000363530115932</v>
       </c>
       <c r="F19">
-        <v>1.021406226714419</v>
+        <v>1.021482496799887</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.048568022441294</v>
+        <v>1.048565640352872</v>
       </c>
       <c r="J19">
-        <v>1.018815366774188</v>
+        <v>1.019251428585091</v>
       </c>
       <c r="K19">
-        <v>1.032686857742779</v>
+        <v>1.03267479044792</v>
       </c>
       <c r="L19">
-        <v>1.013672100981607</v>
+        <v>1.014111481751526</v>
       </c>
       <c r="M19">
-        <v>1.034802796068825</v>
+        <v>1.034877826379526</v>
       </c>
       <c r="N19">
-        <v>1.009726081607333</v>
+        <v>1.012078697350639</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.034257638749933</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.034265255916681</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.020945455241456</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1279,46 +1447,55 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9896932592121157</v>
+        <v>0.9903169640010966</v>
       </c>
       <c r="D20">
-        <v>1.017951486619558</v>
+        <v>1.018104910971831</v>
       </c>
       <c r="E20">
-        <v>0.9984204083299699</v>
+        <v>0.9990184504229934</v>
       </c>
       <c r="F20">
-        <v>1.019872094870764</v>
+        <v>1.020109802534456</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.048025586294498</v>
+        <v>1.048111112279283</v>
       </c>
       <c r="J20">
-        <v>1.017627352546336</v>
+        <v>1.018226321841438</v>
       </c>
       <c r="K20">
-        <v>1.031685858177637</v>
+        <v>1.03183670653678</v>
       </c>
       <c r="L20">
-        <v>1.012491089935459</v>
+        <v>1.013078581182377</v>
       </c>
       <c r="M20">
-        <v>1.033574291439722</v>
+        <v>1.033808027762017</v>
       </c>
       <c r="N20">
-        <v>1.009316621422329</v>
+        <v>1.011863809397549</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.03355382136118</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.033677016384012</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.020756092045563</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1326,46 +1503,55 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9834703108171254</v>
+        <v>0.9847733128417251</v>
       </c>
       <c r="D21">
-        <v>1.013623437297265</v>
+        <v>1.014408183005553</v>
       </c>
       <c r="E21">
-        <v>0.9934599497390219</v>
+        <v>0.9946660015869293</v>
       </c>
       <c r="F21">
-        <v>1.01478320334441</v>
+        <v>1.015643959177484</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.046204202125151</v>
+        <v>1.046624614282072</v>
       </c>
       <c r="J21">
-        <v>1.013675765400738</v>
+        <v>1.014921744639757</v>
       </c>
       <c r="K21">
-        <v>1.028351225800741</v>
+        <v>1.029121634470459</v>
       </c>
       <c r="L21">
-        <v>1.008566293807124</v>
+        <v>1.009749137782777</v>
       </c>
       <c r="M21">
-        <v>1.029489813506155</v>
+        <v>1.030334891873758</v>
       </c>
       <c r="N21">
-        <v>1.007952201460157</v>
+        <v>1.011400655242896</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.031199356621385</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.031760950824974</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.020147764144218</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1373,46 +1559,55 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9794421131708944</v>
+        <v>0.9811893243483599</v>
       </c>
       <c r="D22">
-        <v>1.010822392047471</v>
+        <v>1.012018800253319</v>
       </c>
       <c r="E22">
-        <v>0.990255449532406</v>
+        <v>0.9918595136679933</v>
       </c>
       <c r="F22">
-        <v>1.01149452826436</v>
+        <v>1.012762326877731</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.045008814699593</v>
+        <v>1.045647218765382</v>
       </c>
       <c r="J22">
-        <v>1.011111902884306</v>
+        <v>1.012777929277792</v>
       </c>
       <c r="K22">
-        <v>1.026182461316449</v>
+        <v>1.027355864099289</v>
       </c>
       <c r="L22">
-        <v>1.006022451462522</v>
+        <v>1.007593978667242</v>
       </c>
       <c r="M22">
-        <v>1.026841664428549</v>
+        <v>1.028085129489931</v>
       </c>
       <c r="N22">
-        <v>1.007063156422142</v>
+        <v>1.01108644440257</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.029652366717311</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.030497618049263</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.019748162360457</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1420,46 +1615,55 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.981571506509008</v>
+        <v>0.9830648255590968</v>
       </c>
       <c r="D23">
-        <v>1.012297475173598</v>
+        <v>1.013262305180024</v>
       </c>
       <c r="E23">
-        <v>0.9919457816463935</v>
+        <v>0.9933216549500926</v>
       </c>
       <c r="F23">
-        <v>1.013229884961694</v>
+        <v>1.014267647982332</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.045638096603413</v>
+        <v>1.046153835740609</v>
       </c>
       <c r="J23">
-        <v>1.012462215396807</v>
+        <v>1.013888299508425</v>
       </c>
       <c r="K23">
-        <v>1.027321927869294</v>
+        <v>1.02826869758631</v>
       </c>
       <c r="L23">
-        <v>1.007361945661136</v>
+        <v>1.008710673069294</v>
       </c>
       <c r="M23">
-        <v>1.028236883500889</v>
+        <v>1.029255269454579</v>
       </c>
       <c r="N23">
-        <v>1.007527834834496</v>
+        <v>1.011201843812104</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.030448335150743</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.031132401836276</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.019951158022938</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1467,46 +1671,55 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9897709860338697</v>
+        <v>0.9903887697615649</v>
       </c>
       <c r="D24">
-        <v>1.017997376670682</v>
+        <v>1.01814434577181</v>
       </c>
       <c r="E24">
-        <v>0.9984782891316885</v>
+        <v>0.9990714781022303</v>
       </c>
       <c r="F24">
-        <v>1.019931892997811</v>
+        <v>1.0201634453454</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.048041887993963</v>
+        <v>1.048123996367574</v>
       </c>
       <c r="J24">
-        <v>1.017668559928975</v>
+        <v>1.018261882724791</v>
       </c>
       <c r="K24">
-        <v>1.03171564157815</v>
+        <v>1.03186014650107</v>
       </c>
       <c r="L24">
-        <v>1.01253218052115</v>
+        <v>1.013114919270232</v>
       </c>
       <c r="M24">
-        <v>1.033617795804147</v>
+        <v>1.033845485158812</v>
       </c>
       <c r="N24">
-        <v>1.009325326331938</v>
+        <v>1.011865689021405</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.033547389195437</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.033663433955603</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.020758255847562</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1514,43 +1727,52 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9988860866797939</v>
+        <v>0.998803981661894</v>
       </c>
       <c r="D25">
-        <v>1.024353923729828</v>
+        <v>1.023785358006785</v>
       </c>
       <c r="E25">
-        <v>1.005776207620539</v>
+        <v>1.005752958532924</v>
       </c>
       <c r="F25">
-        <v>1.027411223008701</v>
+        <v>1.026954461331831</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.05065957233365</v>
+        <v>1.050361997124999</v>
       </c>
       <c r="J25">
-        <v>1.02345099669117</v>
+        <v>1.023371663744108</v>
       </c>
       <c r="K25">
-        <v>1.036585584105082</v>
+        <v>1.036025325910433</v>
       </c>
       <c r="L25">
-        <v>1.018285512316127</v>
+        <v>1.018262618882498</v>
       </c>
       <c r="M25">
-        <v>1.039598411886617</v>
+        <v>1.039148272937512</v>
       </c>
       <c r="N25">
-        <v>1.011321082078995</v>
+        <v>1.013207977517904</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.036987825915493</v>
+        <v>1.036605235517891</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.021706208936602</v>
       </c>
     </row>
   </sheetData>
